--- a/Processed Data/Intrinsic Data.xlsx
+++ b/Processed Data/Intrinsic Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\GithubDesktop\CP302\Processed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718EB44-150B-445E-BF26-9C1555ED6B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810FBCEC-CC79-415D-B93F-41E8EDFAC258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
